--- a/sistem-croscek-kehadiran/src/assets/data-jadwal-dan-kehadiran-karyawan-harian/Data informasi kode jadwal.xlsx
+++ b/sistem-croscek-kehadiran/src/assets/data-jadwal-dan-kehadiran-karyawan-harian/Data informasi kode jadwal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang Hub\Project\sistem-croscek-kehadiran\src\assets\data-jadwal-dan-kehadiran-karyawan-harian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4E17779-796C-4176-A51B-DCF68B0F093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74B24EC-BA4D-4658-B6E9-39F39BAE92B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DCCC9DE1-FAEF-460B-B43C-21A7BCCE5728}"/>
   </bookViews>
@@ -548,7 +548,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBFBFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -871,6 +877,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1194,11 +1212,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B83797-3A07-477A-8286-E61583CA7F7E}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J44"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
@@ -1303,28 +1324,28 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="29">
         <v>3</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="30">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="30">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="7"/>
@@ -1499,56 +1520,56 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="30">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="30">
         <v>0</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="30">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="28" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="7"/>

--- a/sistem-croscek-kehadiran/src/assets/data-jadwal-dan-kehadiran-karyawan-harian/Data informasi kode jadwal.xlsx
+++ b/sistem-croscek-kehadiran/src/assets/data-jadwal-dan-kehadiran-karyawan-harian/Data informasi kode jadwal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang Hub\Project\sistem-croscek-kehadiran\src\assets\data-jadwal-dan-kehadiran-karyawan-harian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74B24EC-BA4D-4658-B6E9-39F39BAE92B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF53E767-947C-471A-BF90-C3D10960A596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DCCC9DE1-FAEF-460B-B43C-21A7BCCE5728}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="156">
   <si>
     <t>No.</t>
   </si>
@@ -495,6 +495,15 @@
   </si>
   <si>
     <t>Masuk Siang 2</t>
+  </si>
+  <si>
+    <t>43.</t>
+  </si>
+  <si>
+    <t>Libur</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -574,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -790,6 +799,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFEEEEEE"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFEEEEEE"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -801,7 +830,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -858,6 +887,18 @@
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -879,16 +920,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="5" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1210,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B83797-3A07-477A-8286-E61583CA7F7E}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,50 +1263,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1324,28 +1365,28 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="22">
         <v>3</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="23">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="23">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="7"/>
@@ -1520,56 +1561,56 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="23">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="23">
         <v>0</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="23">
         <v>0</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="23">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="7"/>
@@ -2434,6 +2475,32 @@
       <c r="H44" s="18"/>
       <c r="I44" s="16"/>
       <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="34">
+        <v>0</v>
+      </c>
+      <c r="F45" s="34">
+        <v>0</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
